--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/10/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.00879999999999</v>
+        <v>-21.01979999999999</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -547,13 +547,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-19.37259999999999</v>
+        <v>-19.78149999999999</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.63050000000001</v>
+        <v>-12.58270000000001</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.5701</v>
+        <v>-14.76569999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.66859999999999</v>
+        <v>-21.64549999999999</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-9.067700000000004</v>
+        <v>-9.054900000000004</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.915999999999993</v>
+        <v>-8.509099999999995</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-11.71640000000001</v>
+        <v>-12.30950000000001</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -808,7 +808,7 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.5558</v>
+        <v>-12.51760000000001</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.57220000000001</v>
+        <v>-12.3891</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.97449999999999</v>
+        <v>-22.0264</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.35099999999998</v>
+        <v>-21.03409999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.23249999999999</v>
+        <v>-21.20219999999998</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1012,7 +1012,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.67890000000001</v>
+        <v>-11.88640000000001</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-8.657799999999998</v>
+        <v>-8.513299999999994</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.16739999999998</v>
+        <v>-20.34619999999999</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1165,7 +1165,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-13.01829999999999</v>
+        <v>-13.2596</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-14.1484</v>
+        <v>-13.9682</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1219,7 +1219,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.548599999999995</v>
+        <v>-8.274599999999996</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1284,10 +1284,10 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-14.2124</v>
+        <v>-14.36879999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.086499999999997</v>
+        <v>-8.02</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.0465</v>
+        <v>-12.18149999999999</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.0691</v>
+        <v>-22.2165</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.29050000000001</v>
+        <v>-22.39280000000002</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1550,13 +1550,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-22.0308</v>
+        <v>-22.029</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-12.5071</v>
+        <v>-12.4051</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.0402</v>
+        <v>-11.0741</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-11.77690000000001</v>
+        <v>-11.55850000000001</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.2974</v>
+        <v>-12.95479999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.5646</v>
+        <v>-11.39370000000001</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-8.361099999999995</v>
+        <v>-8.333899999999998</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2083,10 +2083,10 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-11.6923</v>
+        <v>-11.29860000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.625999999999998</v>
+        <v>-8.416899999999996</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.908</v>
+        <v>-21.9704</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
